--- a/DATA ANALYSIS CLASS-1.xlsx
+++ b/DATA ANALYSIS CLASS-1.xlsx
@@ -1,66 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28019"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5aa794bb65db0148/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51510D1D-A550-49E6-8D3B-26A10D59A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{273E428D-A890-473E-9E7C-20F4D804B33F}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="INTRODUCTION TO EXCEL" sheetId="1" r:id="rId1"/>
-    <sheet name="TEXT CLEANING" sheetId="2" r:id="rId2"/>
-    <sheet name="ractices during class" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="INTRODUCTION TO EXCEL" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="TEXT CLEANING" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Practices during class" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Interface Walkthrough</t>
   </si>
@@ -219,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">      jha</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">   jangra</t>
@@ -230,86 +186,83 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -507,21 +460,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -538,7 +491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -589,28 +542,28 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AEB0CA-614C-48AD-BAC5-A2C9544C9247}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="21.86"/>
+    <col customWidth="1" min="2" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="10.43"/>
+    <col customWidth="1" min="5" max="11" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -622,53 +575,53 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="H3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -691,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -714,15 +667,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -730,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -738,21 +691,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4">
-        <v>37599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D9" s="2">
+        <v>37599.0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -764,195 +718,277 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
+        <v>5.0</v>
+      </c>
+      <c r="H13" t="str">
         <f>SUM(C13:G13)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
+        <v>5.0</v>
+      </c>
+      <c r="H14" t="str">
         <f>AVERAGE(C14:G14)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
+        <v>5.0</v>
+      </c>
+      <c r="H15" t="str">
         <f>MAX(C15:G15)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
+        <v>5.0</v>
+      </c>
+      <c r="H16" t="str">
         <f>MIN(C16:G16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
         <v>1.732</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="str">
         <f>ROUND(C17,2)</f>
         <v>1.73</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="str">
         <f>ROUND(C17,1)</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
         <v>1.732</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="str">
         <f>ROUNDUP(C18,2)</f>
         <v>1.74</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="str">
         <f>ROUNDUP(C18,1)</f>
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="C19">
         <v>1.732</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="str">
         <f>ROUNDDOWN(C19,2)</f>
         <v>1.73</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="str">
         <f>ROUNDDOWN(C19,1)</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <f ca="1">RAND()</f>
-        <v>0.80644109704341238</v>
-      </c>
-    </row>
+      <c r="C20" t="str">
+        <f>RAND()</f>
+        <v>0.6399293925</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="DynardoMOPSolver" r:id="rId1"/>
-  </customProperties>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7E2A42-A607-4191-920B-45E220497559}">
-  <dimension ref="C1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="4" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="17.86"/>
+    <col customWidth="1" min="6" max="6" width="17.43"/>
+    <col customWidth="1" min="7" max="7" width="17.57"/>
+    <col customWidth="1" min="8" max="14" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -968,25 +1004,25 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="3:14">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="3:14">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="C3" t="s">
         <v>26</v>
       </c>
@@ -1005,7 +1041,7 @@
         <v>Shaurya Jaiswal</v>
       </c>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1053,7 @@
         <v>Shau</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -1029,19 +1065,19 @@
         <v>iswal</v>
       </c>
     </row>
-    <row r="6" spans="3:14">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="str">
         <f>LEN(E6)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:14">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="C7" t="s">
         <v>32</v>
       </c>
@@ -1053,7 +1089,7 @@
         <v>rya Jais</v>
       </c>
     </row>
-    <row r="8" spans="3:14">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -1065,7 +1101,7 @@
         <v>shaurya jaiswal</v>
       </c>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="C9" t="s">
         <v>34</v>
       </c>
@@ -1077,7 +1113,7 @@
         <v>SHAURYA JAISWAL</v>
       </c>
     </row>
-    <row r="10" spans="3:14">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="C10" t="s">
         <v>35</v>
       </c>
@@ -1089,7 +1125,7 @@
         <v>Shaurya Jaiswal</v>
       </c>
     </row>
-    <row r="11" spans="3:14">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -1101,31 +1137,31 @@
         <v>Shaurya Jaiswal</v>
       </c>
     </row>
-    <row r="12" spans="3:14">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>FIND("a",E12,4)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:14">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>SEARCH(" ",E13,3)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:14">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -1141,22 +1177,19 @@
         <v>Sh- Jaiswal</v>
       </c>
     </row>
-    <row r="15" spans="3:14">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15:G15">_xlfn.TEXTSPLIT(E15," ")</f>
-        <v>Shaurya</v>
-      </c>
-      <c r="G15" t="str">
-        <v>Jaiswal</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14">
+      <c r="F15" t="str">
+        <f t="array" ref="F15">TEXTSPLIT(E15," ")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="C16" t="s">
         <v>43</v>
       </c>
@@ -1167,31 +1200,120 @@
         <v>6</v>
       </c>
       <c r="G16" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,E16:F16)</f>
+        <f>TEXTJOIN(" ",TRUE,E16:F16)</f>
         <v>Shaurya Jaiswal</v>
       </c>
     </row>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="DynardoMOPSolver" r:id="rId1"/>
-  </customProperties>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A862CC9-BE4C-4A88-A5FB-604F35209AAC}">
-  <dimension ref="B3:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="16" width="8.71"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:16">
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="B3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1206,35 +1328,35 @@
         <v>45</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="J3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="K3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="L3">
-        <v>19</v>
-      </c>
-      <c r="M3">
-        <f>SUM(G3:L3)</f>
+        <v>19.0</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M12" si="1">SUM(G3:L3)</f>
         <v>114</v>
       </c>
       <c r="O3" t="str">
-        <f>_xlfn.CONCAT("Shaurya","Jaiswal")</f>
+        <f>CONCAT("Shaurya","Jaiswal")</f>
         <v>ShauryaJaiswal</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="B4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1246,25 +1368,25 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="H4">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="I4">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="J4">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="K4">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="L4">
-        <v>38</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M12" si="0">SUM(G4:L4)</f>
+        <v>38.0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
         <v>228</v>
       </c>
       <c r="O4" t="str">
@@ -1272,9 +1394,9 @@
         <v>ShauryaJaiswal</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="B5">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -1286,31 +1408,31 @@
         <v>47</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="I5">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="J5">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="K5">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="L5">
-        <v>57</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
+        <v>57.0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="B6">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1322,214 +1444,214 @@
         <v>47</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="I6">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="J6">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="K6">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="L6">
-        <v>76</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
+        <v>76.0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="B7">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="I7">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="J7">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="K7">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="L7">
-        <v>95</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
+        <v>95.0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="B8">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="G8">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="H8">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="I8">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="J8">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="K8">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="L8">
-        <v>114</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
+        <v>114.0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="B9">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="H9">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="I9">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="J9">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="K9">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="L9">
-        <v>133</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+        <v>133.0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
         <v>798</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="B10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="H10">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="I10">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="J10">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="K10">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="L10">
-        <v>152</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
+        <v>152.0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
         <v>912</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="B11">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="H11">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="I11">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="J11">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="K11">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="L11">
-        <v>171</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+        <v>171.0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
         <v>1026</v>
       </c>
       <c r="P11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="B12">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="H12">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="I12">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="J12">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="K12">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="L12">
-        <v>190</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+        <v>190.0</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="B13">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1537,19 +1659,19 @@
       <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="str">
         <f>SUM(G3:G12)</f>
         <v>1045</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="B14">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="str">
         <f>SUM(B3,B4)</f>
         <v>3</v>
       </c>
@@ -1564,14 +1686,14 @@
         <v>ashishjangra</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="B15">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="str">
         <f>SUM(B10,10)</f>
         <v>18</v>
       </c>
@@ -1581,14 +1703,14 @@
       <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="str">
         <f>SUM(G3:L12)</f>
         <v>6270</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="B16">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1603,17 +1725,17 @@
         <f>CONCATENATE(G16,H16)</f>
         <v>mehak      jha</v>
       </c>
-      <c r="K16" t="str" cm="1">
+      <c r="K16" t="str">
         <f t="array" ref="K16:L16">TRIM(I16:J16)</f>
         <v>mehak jha</v>
       </c>
-      <c r="L16" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
       <c r="B17">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -1625,9 +1747,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="B18">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1636,18 +1758,18 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" t="str">
-        <f>CONCATENATE(E18, F18)</f>
+        <f t="shared" ref="G18:G23" si="3">CONCATENATE(E18, F18)</f>
         <v>ashish   jangra</v>
       </c>
       <c r="I18" t="str">
-        <f>TRIM(E18)</f>
+        <f t="shared" ref="I18:J18" si="2">TRIM(E18)</f>
         <v>ashish</v>
       </c>
       <c r="J18" t="str">
-        <f>TRIM(F18)</f>
+        <f t="shared" si="2"/>
         <v>jangra</v>
       </c>
       <c r="K18" t="str">
@@ -1655,9 +1777,9 @@
         <v>ashishjangra</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="B19">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1669,20 +1791,20 @@
         <v>47</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G23" si="1">CONCATENATE(E19, F19)</f>
+        <f t="shared" si="3"/>
         <v>prabhakarjha</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" t="str">
         <f>TRIM(I19)</f>
         <v>pal ak</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="B20">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1694,13 +1816,13 @@
         <v>47</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>mehakjha</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="B21">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -1712,30 +1834,109 @@
         <v>47</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>mansijha</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="B22">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="G22" t="str">
-        <f>CONCATENATE(E22, F22)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="B23">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>